--- a/output/pre-brief/summary_range_table_all_sensitivities.xlsx
+++ b/output/pre-brief/summary_range_table_all_sensitivities.xlsx
@@ -416,22 +416,22 @@
         <v>2030</v>
       </c>
       <c r="C2" t="n">
-        <v>49.1789455032217</v>
+        <v>49.18</v>
       </c>
       <c r="D2" t="n">
-        <v>57.2228637298076</v>
+        <v>54.655</v>
       </c>
       <c r="E2" t="n">
-        <v>70.7965180712695</v>
+        <v>63.17</v>
       </c>
       <c r="F2" t="n">
-        <v>34.1066253385285</v>
+        <v>34.11</v>
       </c>
       <c r="G2" t="n">
-        <v>41.7697263683156</v>
+        <v>41.765</v>
       </c>
       <c r="H2" t="n">
-        <v>47.4119872677669</v>
+        <v>47.41</v>
       </c>
     </row>
     <row r="3">
@@ -442,22 +442,22 @@
         <v>2035</v>
       </c>
       <c r="C3" t="n">
-        <v>52.0178848106904</v>
+        <v>52.02</v>
       </c>
       <c r="D3" t="n">
-        <v>66.154020320345</v>
+        <v>65.745</v>
       </c>
       <c r="E3" t="n">
-        <v>77.3882148908686</v>
+        <v>70.33</v>
       </c>
       <c r="F3" t="n">
-        <v>36.3492454471254</v>
+        <v>36.35</v>
       </c>
       <c r="G3" t="n">
-        <v>44.865101403118</v>
+        <v>44.865</v>
       </c>
       <c r="H3" t="n">
-        <v>50.7981331716845</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="4">
@@ -468,22 +468,22 @@
         <v>2030</v>
       </c>
       <c r="C4" t="n">
-        <v>32.9724859968186</v>
+        <v>34.65</v>
       </c>
       <c r="D4" t="n">
-        <v>40.8116957975394</v>
+        <v>39.465</v>
       </c>
       <c r="E4" t="n">
-        <v>46.2749439809225</v>
+        <v>43.03</v>
       </c>
       <c r="F4" t="n">
-        <v>26.3617642892433</v>
+        <v>26.36</v>
       </c>
       <c r="G4" t="n">
-        <v>30.7012090181245</v>
+        <v>30.7</v>
       </c>
       <c r="H4" t="n">
-        <v>33.2434335414114</v>
+        <v>33.24</v>
       </c>
     </row>
     <row r="5">
@@ -494,22 +494,22 @@
         <v>2035</v>
       </c>
       <c r="C5" t="n">
-        <v>36.3248740444119</v>
+        <v>36.32</v>
       </c>
       <c r="D5" t="n">
-        <v>47.3502981839458</v>
+        <v>46.385</v>
       </c>
       <c r="E5" t="n">
-        <v>57.8290490329719</v>
+        <v>54.94</v>
       </c>
       <c r="F5" t="n">
-        <v>28.926892927927</v>
+        <v>28.93</v>
       </c>
       <c r="G5" t="n">
-        <v>33.275817786043</v>
+        <v>33.275</v>
       </c>
       <c r="H5" t="n">
-        <v>39.4995251014408</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="6">
@@ -520,22 +520,22 @@
         <v>2030</v>
       </c>
       <c r="C6" t="n">
-        <v>48.6408899629182</v>
+        <v>48.64</v>
       </c>
       <c r="D6" t="n">
-        <v>71.8674128726719</v>
+        <v>68.56</v>
       </c>
       <c r="E6" t="n">
-        <v>91.0517567782691</v>
+        <v>82.77</v>
       </c>
       <c r="F6" t="n">
-        <v>42.5194783550685</v>
+        <v>42.52</v>
       </c>
       <c r="G6" t="n">
-        <v>50.4478980042498</v>
+        <v>50.445</v>
       </c>
       <c r="H6" t="n">
-        <v>59.1850934525819</v>
+        <v>59.19</v>
       </c>
     </row>
     <row r="7">
@@ -546,22 +546,22 @@
         <v>2035</v>
       </c>
       <c r="C7" t="n">
-        <v>60.3810645206503</v>
+        <v>67.32</v>
       </c>
       <c r="D7" t="n">
-        <v>79.40270365514</v>
+        <v>77.325</v>
       </c>
       <c r="E7" t="n">
-        <v>92.2555699763691</v>
+        <v>86.53</v>
       </c>
       <c r="F7" t="n">
-        <v>40.4170659555852</v>
+        <v>40.42</v>
       </c>
       <c r="G7" t="n">
-        <v>52.800486887749</v>
+        <v>52.8</v>
       </c>
       <c r="H7" t="n">
-        <v>67.7096787633849</v>
+        <v>67.71</v>
       </c>
     </row>
     <row r="8">
@@ -572,22 +572,22 @@
         <v>2030</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1667689638769</v>
+        <v>17.17</v>
       </c>
       <c r="D8" t="n">
-        <v>36.0692643722226</v>
+        <v>36.115</v>
       </c>
       <c r="E8" t="n">
-        <v>44.043108044258</v>
+        <v>42.59</v>
       </c>
       <c r="F8" t="n">
-        <v>5.59723035391041</v>
+        <v>5.6</v>
       </c>
       <c r="G8" t="n">
-        <v>24.7933909617616</v>
+        <v>24.795</v>
       </c>
       <c r="H8" t="n">
-        <v>32.6172169168198</v>
+        <v>32.62</v>
       </c>
     </row>
     <row r="9">
@@ -598,22 +598,22 @@
         <v>2035</v>
       </c>
       <c r="C9" t="n">
-        <v>22.9874196826221</v>
+        <v>22.99</v>
       </c>
       <c r="D9" t="n">
-        <v>38.0071483098435</v>
+        <v>35.785</v>
       </c>
       <c r="E9" t="n">
-        <v>58.4517373593025</v>
+        <v>56.64</v>
       </c>
       <c r="F9" t="n">
-        <v>3.38796455103415</v>
+        <v>3.39</v>
       </c>
       <c r="G9" t="n">
-        <v>26.780105697321</v>
+        <v>26.78</v>
       </c>
       <c r="H9" t="n">
-        <v>35.701088133111</v>
+        <v>35.7</v>
       </c>
     </row>
     <row r="10">
@@ -624,22 +624,22 @@
         <v>2030</v>
       </c>
       <c r="C10" t="n">
-        <v>11.068806311383</v>
+        <v>11.07</v>
       </c>
       <c r="D10" t="n">
-        <v>16.657604196855</v>
+        <v>17.415</v>
       </c>
       <c r="E10" t="n">
-        <v>25.1001813368259</v>
+        <v>25.03</v>
       </c>
       <c r="F10" t="n">
-        <v>8.69286717114796</v>
+        <v>8.69</v>
       </c>
       <c r="G10" t="n">
-        <v>15.2894627167106</v>
+        <v>15.29</v>
       </c>
       <c r="H10" t="n">
-        <v>21.5276604937686</v>
+        <v>21.53</v>
       </c>
     </row>
     <row r="11">
@@ -650,22 +650,22 @@
         <v>2035</v>
       </c>
       <c r="C11" t="n">
-        <v>14.5186995652874</v>
+        <v>14.52</v>
       </c>
       <c r="D11" t="n">
-        <v>27.889467323366</v>
+        <v>26.675</v>
       </c>
       <c r="E11" t="n">
-        <v>40.5003846560826</v>
+        <v>35.33</v>
       </c>
       <c r="F11" t="n">
-        <v>13.3036305479526</v>
+        <v>13.3</v>
       </c>
       <c r="G11" t="n">
-        <v>22.8111858351004</v>
+        <v>22.81</v>
       </c>
       <c r="H11" t="n">
-        <v>28.1413402533926</v>
+        <v>28.14</v>
       </c>
     </row>
   </sheetData>
